--- a/awaystreaks.xlsx
+++ b/awaystreaks.xlsx
@@ -7,8 +7,31 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AwayConceedZeroFirstHSecHOut" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AwayConceedOneFirstHSecHOut" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AwayScoreFirstHSecHOut" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FirstHalfGoalFulltimeOverUnder" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FirstHalfUnderZeroSecOverZero" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FirstHalfOverZeroSecOverOne" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FirstHalfOverZeroSecOverTwo" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FirstHalfOverZeroSecOverThree" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FirstHalfOverOneSecUnderZero" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FirstHalfOverOneSecOverOne" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FirstHalfOverOneSecOverTwo" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FirstHalfOverOneSecOverThree" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FirstHalfOverTwoSecOverThree" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FirstHalfOverTwoSecOverTwo" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FirstHalfOverTwoSecOverOne" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FirstHalfOverThreeSecUnderZero" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FirstHalfOverThreeSecOverThree" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FirstHalfOverThreeSecOverTwo" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FirstHalfAwayWinSecHalfLose" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FirstHalfAwayWinSecHalfHomeWD" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FirstHAwayWinSecHHomeScore" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FirstHAwayWinSecHAwayScore1" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FirstHAwayWinSecHAwayScore2" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FirstHAwayWinSecHAwayScore3" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FirstHAwayWinSecHHomeScore1" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FirstHAwayWinSecHHomeScore2" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FirstHAwayWinSecHHomeScore3" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -442,7 +465,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>AwayConceedZeroFirstHSecHOut</t>
+          <t>AwayScoreFirstHSecHOut</t>
         </is>
       </c>
     </row>
@@ -457,7 +480,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>6/2</t>
+          <t>3/1</t>
         </is>
       </c>
     </row>
@@ -472,7 +495,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>7/2</t>
+          <t>5/1</t>
         </is>
       </c>
     </row>
@@ -487,7 +510,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3/6</t>
+          <t>3/3</t>
         </is>
       </c>
     </row>
@@ -502,7 +525,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4/6</t>
+          <t>4/5</t>
         </is>
       </c>
     </row>
@@ -517,7 +540,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7/4</t>
+          <t>6/0</t>
         </is>
       </c>
     </row>
@@ -532,7 +555,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>6/3</t>
+          <t>6/1</t>
         </is>
       </c>
     </row>
@@ -547,7 +570,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5/3</t>
+          <t>7/0</t>
         </is>
       </c>
     </row>
@@ -562,7 +585,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>7/5</t>
+          <t>7/2</t>
         </is>
       </c>
     </row>
@@ -577,7 +600,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4/4</t>
+          <t>10/3</t>
         </is>
       </c>
     </row>
@@ -592,7 +615,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>5/8</t>
+          <t>5/1</t>
         </is>
       </c>
     </row>
@@ -607,7 +630,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>5/7</t>
+          <t>4/3</t>
         </is>
       </c>
     </row>
@@ -622,7 +645,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>9/3</t>
+          <t>7/1</t>
         </is>
       </c>
     </row>
@@ -637,7 +660,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1/6</t>
+          <t>5/1</t>
         </is>
       </c>
     </row>
@@ -652,7 +675,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>3/4</t>
+          <t>5/0</t>
         </is>
       </c>
     </row>
@@ -667,7 +690,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>6/5</t>
+          <t>6/1</t>
         </is>
       </c>
     </row>
@@ -682,7 +705,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>4/2</t>
+          <t>6/1</t>
         </is>
       </c>
     </row>
@@ -697,7 +720,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>5/7</t>
+          <t>7/3</t>
         </is>
       </c>
     </row>
@@ -712,7 +735,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>7/5</t>
+          <t>6/1</t>
         </is>
       </c>
     </row>
@@ -727,7 +750,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4/3</t>
+          <t>6/1</t>
         </is>
       </c>
     </row>
@@ -742,7 +765,3317 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>8/4</t>
+          <t>9/1</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AwayGamesPlayed</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>FirstHalfOverOneSecOverThree</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>FeralpiSalo</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>18</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0/8</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Bari</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>18</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0/7</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>18</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0/7</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>18</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0/8</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>18</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Sudtirol</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>18</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0/8</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0/7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>18</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0/8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>18</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>18</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>17</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>17</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0/6</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>17</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0/6</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>17</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>17</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0/7</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>17</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>17</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0/7</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>17</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0/7</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AwayGamesPlayed</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>FirstHalfOverTwoSecOverThree</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>FeralpiSalo</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>18</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Bari</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>18</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>18</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>18</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>18</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Sudtirol</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>18</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>18</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>18</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>18</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>17</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>17</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>17</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>17</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>17</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>17</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0/7</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0/6</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>17</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>17</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AwayGamesPlayed</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>FirstHalfOverTwoSecOverTwo</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>FeralpiSalo</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>18</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Bari</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>18</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>18</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>18</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>18</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Sudtirol</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>18</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>18</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>18</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>18</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>17</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>17</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>17</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>17</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>17</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>17</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0/6</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>17</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>17</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AwayGamesPlayed</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>FirstHalfOverTwoSecOverOne</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>FeralpiSalo</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>18</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Bari</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>18</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>18</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>18</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>18</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Sudtirol</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>18</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>18</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>18</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>18</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>17</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>17</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>17</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>17</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>17</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>17</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>17</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>17</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AwayGamesPlayed</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>FirstHalfOverThreeSecUnderZero</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>FeralpiSalo</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>18</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Bari</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>18</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>18</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>18</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>18</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Sudtirol</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>18</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>18</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>18</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>18</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>17</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>17</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>17</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>17</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>17</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>17</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>3/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>17</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>17</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AwayGamesPlayed</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>FirstHalfOverThreeSecOverThree</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>FeralpiSalo</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>18</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Bari</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>18</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>18</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>18</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>18</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Sudtirol</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>18</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>18</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>18</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>18</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>17</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>17</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>17</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>17</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>17</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>17</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>17</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>17</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AwayGamesPlayed</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>FirstHalfOverThreeSecOverTwo</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>FeralpiSalo</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>18</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Bari</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>18</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>18</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>18</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>18</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Sudtirol</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>18</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>18</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>18</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>18</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>17</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>17</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>17</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>17</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>17</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>17</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>17</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>17</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AwayGamesPlayed</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>FirstHalfAwayWinSecHalfLose</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>FeralpiSalo</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>18</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Bari</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>18</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>18</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>18</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0/6</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>18</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Sudtirol</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>18</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>18</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>18</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0/7</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>18</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>17</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>17</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>17</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>17</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>17</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>17</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0/8</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>17</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>17</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AwayGamesPlayed</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>FirstHalfAwayWinSecHalfHomeWD</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>FeralpiSalo</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>18</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Bari</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>18</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>18</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>18</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2/8</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>18</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Sudtirol</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>18</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>18</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>5/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>18</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3/10</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>18</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>17</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>17</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1/6</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>17</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>17</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>17</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>17</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0/8</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>17</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>17</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>6/7</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AwayGamesPlayed</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>FirstHAwayWinSecHHomeScore</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>FeralpiSalo</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>18</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Bari</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>18</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>18</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>18</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1/7</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>18</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>4/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Sudtirol</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>18</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>5/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>18</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>5/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>18</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>4/6</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>18</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>4/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>17</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>17</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>5/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>17</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>17</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>17</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>4/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>17</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>3/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>17</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>17</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>7/1</t>
         </is>
       </c>
     </row>
@@ -773,7 +4106,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>AwayConceedOneFirstHSecHOut</t>
+          <t>FirstHalfGoalFulltimeOverUnder</t>
         </is>
       </c>
     </row>
@@ -788,7 +4121,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>6/2</t>
+          <t>12/0</t>
         </is>
       </c>
     </row>
@@ -803,7 +4136,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4/2</t>
+          <t>10/2</t>
         </is>
       </c>
     </row>
@@ -818,7 +4151,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5/6</t>
+          <t>10/2</t>
         </is>
       </c>
     </row>
@@ -833,7 +4166,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4/6</t>
+          <t>11/3</t>
         </is>
       </c>
     </row>
@@ -848,7 +4181,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5/4</t>
+          <t>10/0</t>
         </is>
       </c>
     </row>
@@ -863,7 +4196,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7/3</t>
+          <t>12/0</t>
         </is>
       </c>
     </row>
@@ -878,7 +4211,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4/3</t>
+          <t>12/2</t>
         </is>
       </c>
     </row>
@@ -893,7 +4226,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4/5</t>
+          <t>10/2</t>
         </is>
       </c>
     </row>
@@ -908,7 +4241,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2/4</t>
+          <t>9/8</t>
         </is>
       </c>
     </row>
@@ -923,7 +4256,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2/8</t>
+          <t>8/1</t>
         </is>
       </c>
     </row>
@@ -938,7 +4271,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>3/7</t>
+          <t>8/0</t>
         </is>
       </c>
     </row>
@@ -953,7 +4286,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0/3</t>
+          <t>11/0</t>
         </is>
       </c>
     </row>
@@ -968,7 +4301,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4/6</t>
+          <t>7/4</t>
         </is>
       </c>
     </row>
@@ -983,7 +4316,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>3/4</t>
+          <t>7/3</t>
         </is>
       </c>
     </row>
@@ -998,7 +4331,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4/5</t>
+          <t>11/0</t>
         </is>
       </c>
     </row>
@@ -1013,7 +4346,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>7/2</t>
+          <t>12/0</t>
         </is>
       </c>
     </row>
@@ -1028,7 +4361,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0/7</t>
+          <t>8/3</t>
         </is>
       </c>
     </row>
@@ -1043,7 +4376,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2/5</t>
+          <t>6/3</t>
         </is>
       </c>
     </row>
@@ -1058,7 +4391,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1/3</t>
+          <t>8/5</t>
         </is>
       </c>
     </row>
@@ -1073,7 +4406,4310 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>10/3</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AwayGamesPlayed</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>FirstHAwayWinSecHAwayScore1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>FeralpiSalo</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>18</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Bari</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>18</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>18</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>18</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>18</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Sudtirol</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>18</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>18</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1/6</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>18</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>5/5</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>18</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>17</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>17</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>4/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>17</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>17</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>17</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>17</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>6/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>3/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>17</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>17</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AwayGamesPlayed</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>FirstHAwayWinSecHAwayScore2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>FeralpiSalo</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>18</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Bari</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>18</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>18</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>18</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1/7</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>18</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Sudtirol</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>18</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>18</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0/7</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>18</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>18</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>17</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>17</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0/6</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>17</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>17</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>17</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>1/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>17</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1/7</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>17</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>17</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2/6</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AwayGamesPlayed</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>FirstHAwayWinSecHAwayScore3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>FeralpiSalo</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>18</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Bari</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>18</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>18</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>18</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0/8</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>18</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Sudtirol</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>18</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>18</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0/7</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>18</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>18</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>17</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>17</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0/6</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>17</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>17</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>17</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>17</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0/8</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>17</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>17</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0/8</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AwayGamesPlayed</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>FirstHAwayWinSecHHomeScore1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>FeralpiSalo</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>18</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Bari</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>18</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>18</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>18</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2/6</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>18</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>5/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Sudtirol</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>18</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>5/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>18</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>5/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>18</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>5/5</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>18</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>4/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>17</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>17</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>5/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>17</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>17</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>17</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>4/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>17</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>3/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>17</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>17</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>7/1</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AwayGamesPlayed</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>FirstHAwayWinSecHHomeScore2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>FeralpiSalo</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>18</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Bari</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>18</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>18</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>18</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0/8</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>18</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Sudtirol</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>18</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>18</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>18</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2/8</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>18</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>17</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>17</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0/6</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>17</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>17</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>17</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>17</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0/8</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>17</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>17</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AwayGamesPlayed</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>FirstHAwayWinSecHHomeScore3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>FeralpiSalo</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>18</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Bari</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>18</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>18</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>18</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0/8</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>18</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Sudtirol</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>18</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>18</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1/6</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>18</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>18</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>17</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>17</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0/6</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>17</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>17</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>17</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>17</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0/8</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>17</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>17</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AwayGamesPlayed</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>FirstHalfUnderZeroSecOverZero</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>FeralpiSalo</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>18</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>6/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Bari</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>18</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>5/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>18</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>18</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>18</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Sudtirol</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>18</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>6/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>18</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>5/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>18</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>18</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>6/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>17</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>6/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>17</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>5/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>17</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>17</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>17</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>4/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>17</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>4/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>6/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>17</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>3/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>17</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>3/1</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AwayGamesPlayed</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>FirstHalfOverZeroSecOverOne</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>FeralpiSalo</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>18</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Bari</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>18</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>18</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>18</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>18</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Sudtirol</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>18</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>18</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>18</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>18</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2/7</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>17</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3/6</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>17</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>17</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>17</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>17</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>17</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1/7</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>17</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>17</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AwayGamesPlayed</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>FirstHalfOverZeroSecOverTwo</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>FeralpiSalo</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>18</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Bari</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>18</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0/6</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>18</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1/5</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>18</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>18</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1/7</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Sudtirol</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>18</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1/5</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>18</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0/6</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>18</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>18</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2/7</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>17</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3/6</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>17</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>17</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0/6</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>17</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0/7</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>17</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0/6</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>17</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0/8</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>17</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>17</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AwayGamesPlayed</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>FirstHalfOverZeroSecOverThree</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>FeralpiSalo</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>18</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0/6</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Bari</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>18</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0/6</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>18</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0/6</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>18</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>18</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0/8</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Sudtirol</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>18</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0/6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>18</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0/6</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>18</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>18</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>17</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1/8</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>17</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1/5</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>17</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0/6</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>17</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0/7</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>17</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0/6</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>17</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0/8</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>17</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>17</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AwayGamesPlayed</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>FirstHalfOverOneSecUnderZero</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>FeralpiSalo</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>18</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>8/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Bari</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>18</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>6/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>18</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>5/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>18</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>5/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>18</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>4/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Sudtirol</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>18</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>8/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>6/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>18</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>6/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>18</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>5/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>18</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>17</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>17</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>6/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>17</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>5/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>17</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>17</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>7/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>17</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>4/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>3/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>17</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>4/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>17</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>5/2</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AwayGamesPlayed</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>FirstHalfOverOneSecOverOne</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>FeralpiSalo</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>18</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Bari</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>18</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>4/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>18</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>18</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>18</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Sudtirol</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>18</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>4/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>18</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>18</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3/6</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>18</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>17</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>17</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>17</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>17</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>17</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>17</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>17</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1/6</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>17</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1/6</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AwayGamesPlayed</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>FirstHalfOverOneSecOverTwo</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>FeralpiSalo</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>18</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0/8</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Bari</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>18</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0/7</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>18</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1/6</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>18</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0/8</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>18</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Sudtirol</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>18</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1/7</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>18</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1/7</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>18</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1/8</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>18</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>17</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>17</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0/6</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>17</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0/6</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>17</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>17</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>17</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>17</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0/7</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>17</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1/6</t>
         </is>
       </c>
     </row>
